--- a/TA buku/Results/Calculation/dp-partial-ner-w2v-money.xlsx
+++ b/TA buku/Results/Calculation/dp-partial-ner-w2v-money.xlsx
@@ -432,25 +432,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <v>0.65</v>
       </c>
       <c r="G2">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="H2">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="I2">
         <v>0.77</v>
@@ -464,25 +464,25 @@
         <v>118</v>
       </c>
       <c r="C3">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D3">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>12</v>
       </c>
       <c r="F3">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="G3">
         <v>0.91</v>
       </c>
       <c r="H3">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="I3">
-        <v>0.66</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -493,25 +493,25 @@
         <v>106</v>
       </c>
       <c r="C4">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>24</v>
       </c>
       <c r="F4">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="G4">
         <v>0.82</v>
       </c>
       <c r="H4">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I4">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -522,22 +522,22 @@
         <v>84</v>
       </c>
       <c r="C5">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>46</v>
       </c>
       <c r="F5">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="G5">
         <v>0.65</v>
       </c>
       <c r="H5">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="I5">
         <v>0.79</v>
